--- a/Rapport/Partie1.xlsx
+++ b/Rapport/Partie1.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55ef91425b154bc0/04 - ASD2/00 - Labos/ASD2_Labo4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Library/Mobile Documents/com~apple~CloudDocs/HEIG-VD/E2/ASD2/ASD2_Labo4/Rapport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="34A9FB88F9797C4BED20A331B411564E89FFE302" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{ECE79A7F-18D3-4A7E-B646-46A684777A5F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="11220" xr2:uid="{11F00509-CC9B-439A-AAA6-BD61352404AC}"/>
+    <workbookView xWindow="20" yWindow="440" windowWidth="33600" windowHeight="20560"/>
   </bookViews>
   <sheets>
     <sheet name="Données" sheetId="1" r:id="rId1"/>
     <sheet name="Graphiques" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
   <si>
     <t>TypeHash</t>
   </si>
@@ -40,16 +46,10 @@
     <t>DirectoryLong</t>
   </si>
   <si>
-    <t>1456 (14.56%)</t>
-  </si>
-  <si>
     <t>DISTRIBUTION</t>
   </si>
   <si>
     <t>10000 (100%)</t>
-  </si>
-  <si>
-    <t>22183 (72.1938%)</t>
   </si>
   <si>
     <t>Found total</t>
@@ -70,28 +70,10 @@
     <t>Number of buckets</t>
   </si>
   <si>
-    <t>1448 (14.48%)</t>
-  </si>
-  <si>
-    <t>22175 (72.1678%)</t>
-  </si>
-  <si>
     <t>DirectoryPolILj2EE</t>
   </si>
   <si>
-    <t>1848 (18.48%)</t>
-  </si>
-  <si>
-    <t>22575 (73.4696%)</t>
-  </si>
-  <si>
     <t>DirectoryPolILj31EE</t>
-  </si>
-  <si>
-    <t>1452 (14.52%)</t>
-  </si>
-  <si>
-    <t>22179 (72.1808%)</t>
   </si>
   <si>
     <t>DirectoryPolILj37EE</t>
@@ -100,28 +82,10 @@
     <t>DirectoryStl</t>
   </si>
   <si>
-    <t>1488 (14.88%)</t>
-  </si>
-  <si>
-    <t>22215 (72.298%)</t>
-  </si>
-  <si>
     <t>DirectorySha256</t>
   </si>
   <si>
-    <t>1461 (14.61%)</t>
-  </si>
-  <si>
-    <t>22188 (72.2101%)</t>
-  </si>
-  <si>
     <t>DirectoryCity</t>
-  </si>
-  <si>
-    <t>1449 (14.49%)</t>
-  </si>
-  <si>
-    <t>22176 (72.1711%)</t>
   </si>
   <si>
     <t>total</t>
@@ -143,11 +107,17 @@
   <si>
     <t>duration insertion average time</t>
   </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +234,7 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
         <color auto="1"/>
@@ -276,7 +246,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
         <color auto="1"/>
@@ -291,10 +261,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
         <color auto="1"/>
@@ -308,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,20 +310,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -373,7 +356,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -409,6 +392,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -528,33 +512,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.7968999999999999</c:v>
+                  <c:v>6.7969</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9717000000000002</c:v>
+                  <c:v>4.9717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5895000000000001</c:v>
+                  <c:v>2.5895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.5627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5620000000000001</c:v>
+                  <c:v>1.562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-996D-4B20-A482-A794F03F26F5}"/>
             </c:ext>
@@ -565,7 +549,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Données!$N$2</c:f>
+              <c:f>Données!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -641,38 +625,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Données!$N$3:$N$10</c:f>
+              <c:f>Données!$P$3:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.0347999999999997</c:v>
+                  <c:v>5.0348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6108000000000002</c:v>
+                  <c:v>4.6108</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.5585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.5627</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5632999999999999</c:v>
+                  <c:v>1.5633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-996D-4B20-A482-A794F03F26F5}"/>
             </c:ext>
@@ -687,11 +671,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446688504"/>
-        <c:axId val="446689160"/>
+        <c:axId val="-1415839328"/>
+        <c:axId val="-1415834944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446688504"/>
+        <c:axId val="-1415839328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,6 +704,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -780,7 +765,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446689160"/>
+        <c:crossAx val="-1415834944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -788,7 +773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446689160"/>
+        <c:axId val="-1415834944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,6 +816,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -885,7 +871,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446688504"/>
+        <c:crossAx val="-1415839328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -899,6 +885,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -927,14 +914,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1498,7 +1485,7 @@
         <xdr:cNvPr id="2" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BFA6D4-5F1F-44C8-9CFC-834BDD0CAC80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9BFA6D4-5F1F-44C8-9CFC-834BDD0CAC80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1815,54 +1802,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2437B05-7450-4433-A887-368B2084817E}">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="28.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15" t="s">
-        <v>34</v>
+    <row r="1" spans="1:17" s="11" customFormat="1" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="13"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1870,43 +1864,50 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="J2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="L2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:14" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>12</v>
       </c>
@@ -1925,32 +1926,41 @@
       <c r="F3" s="2">
         <v>30727</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
+      <c r="G3" s="3">
+        <v>1456</v>
+      </c>
+      <c r="H3" s="3">
+        <f>(G3/C3)*100</f>
+        <v>14.56</v>
       </c>
       <c r="I3" s="3">
+        <v>22183</v>
+      </c>
+      <c r="J3" s="18">
+        <f>(I3/F3)*100</f>
+        <v>72.19383603996485</v>
+      </c>
+      <c r="K3" s="3">
         <v>5</v>
       </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3">
         <v>50348</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>5.0347999999999997</v>
       </c>
+      <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>13</v>
       </c>
@@ -1969,37 +1979,46 @@
       <c r="F4" s="2">
         <v>30727</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
+      <c r="G4" s="3">
+        <v>1448</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H10" si="0">(G4/C4)*100</f>
+        <v>14.48</v>
       </c>
       <c r="I4" s="3">
+        <v>22175</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" ref="J4:J10" si="1">(I4/F4)*100</f>
+        <v>72.167800305919869</v>
+      </c>
+      <c r="K4" s="3">
         <v>4</v>
       </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="3">
         <v>46108</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>4.6108000000000002</v>
       </c>
+      <c r="Q4" s="16"/>
     </row>
-    <row r="5" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>10000</v>
@@ -2013,37 +2032,46 @@
       <c r="F5" s="2">
         <v>30727</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
+      <c r="G5" s="3">
+        <v>1848</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>18.48</v>
       </c>
       <c r="I5" s="3">
+        <v>22575</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="1"/>
+        <v>73.469587008168716</v>
+      </c>
+      <c r="K5" s="3">
         <v>5</v>
       </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3">
         <v>15585</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>1.5585</v>
       </c>
+      <c r="Q5" s="16"/>
     </row>
-    <row r="6" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>10000</v>
@@ -2057,37 +2085,46 @@
       <c r="F6" s="2">
         <v>30727</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>21</v>
+      <c r="G6" s="3">
+        <v>1452</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>14.52</v>
       </c>
       <c r="I6" s="3">
+        <v>22179</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="1"/>
+        <v>72.180818172942367</v>
+      </c>
+      <c r="K6" s="3">
         <v>5</v>
       </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16"/>
     </row>
-    <row r="7" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>10000</v>
@@ -2101,37 +2138,46 @@
       <c r="F7" s="2">
         <v>30727</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>21</v>
+      <c r="G7" s="3">
+        <v>1452</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>14.52</v>
       </c>
       <c r="I7" s="3">
+        <v>22179</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="1"/>
+        <v>72.180818172942367</v>
+      </c>
+      <c r="K7" s="3">
         <v>5</v>
       </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>10000</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3">
         <v>15627</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>1.5627</v>
       </c>
+      <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>10000</v>
@@ -2145,37 +2191,46 @@
       <c r="F8" s="2">
         <v>30727</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>25</v>
+      <c r="G8" s="3">
+        <v>1488</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>14.879999999999999</v>
       </c>
       <c r="I8" s="3">
+        <v>22215</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="1"/>
+        <v>72.297978976144762</v>
+      </c>
+      <c r="K8" s="3">
         <v>5</v>
       </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
         <v>10000</v>
@@ -2189,37 +2244,46 @@
       <c r="F9" s="2">
         <v>30727</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>28</v>
+      <c r="G9" s="3">
+        <v>1461</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>14.610000000000001</v>
       </c>
       <c r="I9" s="3">
+        <v>22188</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="1"/>
+        <v>72.210108373742969</v>
+      </c>
+      <c r="K9" s="3">
         <v>4</v>
       </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>10000</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>15633</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>1.5632999999999999</v>
       </c>
+      <c r="Q9" s="16"/>
     </row>
-    <row r="10" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5">
         <v>10000</v>
@@ -2233,38 +2297,1094 @@
       <c r="F10" s="5">
         <v>30727</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>31</v>
+      <c r="G10" s="6">
+        <v>1449</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>14.49</v>
       </c>
       <c r="I10" s="6">
+        <v>22176</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="1"/>
+        <v>72.171054772675504</v>
+      </c>
+      <c r="K10" s="6">
         <v>4</v>
       </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>10000</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="20">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="O12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="16"/>
     </row>
-    <row r="11" spans="1:14" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>15626</v>
+      </c>
+      <c r="E13" s="4">
+        <f>D13/C13</f>
+        <v>1.5626</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7517</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4422</v>
+      </c>
+      <c r="H13" s="3">
+        <f>(G13/C13)*100</f>
+        <v>44.22</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1939</v>
+      </c>
+      <c r="J13" s="18">
+        <f>(I13/F13)*100</f>
+        <v>25.794864972728483</v>
+      </c>
+      <c r="K13" s="3">
+        <v>7</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <f>O13/M13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>66515</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E20" si="2">D14/C14</f>
+        <v>6.6515000000000004</v>
+      </c>
+      <c r="F14" s="2">
+        <v>7517</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4458</v>
+      </c>
+      <c r="H14" s="3">
+        <f>(G14/C14)*100</f>
+        <v>44.58</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1975</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" ref="J14:J20" si="3">(I14/F14)*100</f>
+        <v>26.273779433284556</v>
+      </c>
+      <c r="K14" s="3">
+        <v>7</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>62508</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" ref="P14:P20" si="4">O14/M14</f>
+        <v>6.2507999999999999</v>
+      </c>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>15625</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5625</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7517</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4433</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" ref="H15:H20" si="5">(G15/C15)*100</f>
+        <v>44.330000000000005</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1950</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="3"/>
+        <v>25.941199946787279</v>
+      </c>
+      <c r="K15" s="3">
+        <v>9</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
+        <v>15652</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5651999999999999</v>
+      </c>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>31254</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1254</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7517</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4495</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="5"/>
+        <v>44.95</v>
+      </c>
+      <c r="I16" s="3">
+        <v>2012</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="3"/>
+        <v>26.765997073300518</v>
+      </c>
+      <c r="K16" s="3">
+        <v>7</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="3">
+        <v>31253</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="4"/>
+        <v>3.1253000000000002</v>
+      </c>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>31256</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1255999999999999</v>
+      </c>
+      <c r="F17" s="2">
+        <v>7517</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4421</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="5"/>
+        <v>44.21</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1938</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="3"/>
+        <v>25.781561793268594</v>
+      </c>
+      <c r="K17" s="3">
+        <v>7</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>46857</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="2"/>
+        <v>4.6856999999999998</v>
+      </c>
+      <c r="F18" s="2">
+        <v>7517</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4505</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
+        <v>45.050000000000004</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2022</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="3"/>
+        <v>26.899028867899428</v>
+      </c>
+      <c r="K18" s="3">
+        <v>8</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>31224</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1223999999999998</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7517</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4487</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="5"/>
+        <v>44.87</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2004</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="3"/>
+        <v>26.659571637621394</v>
+      </c>
+      <c r="K19" s="3">
+        <v>7</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>7517</v>
+      </c>
+      <c r="G20" s="6">
+        <v>4471</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="5"/>
+        <v>44.71</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1988</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="3"/>
+        <v>26.446720766263137</v>
+      </c>
+      <c r="K20" s="6">
+        <v>7</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>12</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>31253</v>
+      </c>
+      <c r="E23" s="4">
+        <f>D23/C23</f>
+        <v>3.1253000000000002</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1741</v>
+      </c>
+      <c r="G23" s="3">
+        <v>8264</v>
+      </c>
+      <c r="H23" s="3">
+        <f>(G23/C23)*100</f>
+        <v>82.64</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5</v>
+      </c>
+      <c r="J23" s="18">
+        <f>(I23/F23)*100</f>
+        <v>0.28719126938541067</v>
+      </c>
+      <c r="K23" s="3">
+        <v>17</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
+        <v>93758</v>
+      </c>
+      <c r="P23" s="4">
+        <f>O23/M23</f>
+        <v>9.3757999999999999</v>
+      </c>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" ref="E24:E30" si="6">D24/C24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1741</v>
+      </c>
+      <c r="G24" s="3">
+        <v>8265</v>
+      </c>
+      <c r="H24" s="3">
+        <f>(G24/C24)*100</f>
+        <v>82.65</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" ref="J24:J30" si="7">(I24/F24)*100</f>
+        <v>0.34462952326249285</v>
+      </c>
+      <c r="K24" s="3">
+        <v>14</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" ref="P24:P30" si="8">O24/M24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D25" s="3">
+        <v>31238</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="6"/>
+        <v>3.1238000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1741</v>
+      </c>
+      <c r="G25" s="3">
+        <v>8267</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" ref="H25:H30" si="9">(G25/C25)*100</f>
+        <v>82.67</v>
+      </c>
+      <c r="I25" s="3">
+        <v>8</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="7"/>
+        <v>0.4595060310166571</v>
+      </c>
+      <c r="K25" s="3">
+        <v>15</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>15624</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="6"/>
+        <v>1.5624</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1741</v>
+      </c>
+      <c r="G26" s="3">
+        <v>8266</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="9"/>
+        <v>82.66</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="7"/>
+        <v>0.40206777713957498</v>
+      </c>
+      <c r="K26" s="3">
+        <v>18</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D27" s="3">
+        <v>46878</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="6"/>
+        <v>4.6878000000000002</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1741</v>
+      </c>
+      <c r="G27" s="3">
+        <v>8267</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="9"/>
+        <v>82.67</v>
+      </c>
+      <c r="I27" s="3">
+        <v>8</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="7"/>
+        <v>0.4595060310166571</v>
+      </c>
+      <c r="K27" s="3">
+        <v>16</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>15624</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="6"/>
+        <v>1.5624</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1741</v>
+      </c>
+      <c r="G28" s="3">
+        <v>8266</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="9"/>
+        <v>82.66</v>
+      </c>
+      <c r="I28" s="3">
+        <v>7</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" si="7"/>
+        <v>0.40206777713957498</v>
+      </c>
+      <c r="K28" s="3">
+        <v>14</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="3">
+        <v>15660</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5660000000000001</v>
+      </c>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>15</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="3">
+        <v>78139</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="6"/>
+        <v>7.8139000000000003</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1741</v>
+      </c>
+      <c r="G29" s="3">
+        <v>8265</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="9"/>
+        <v>82.65</v>
+      </c>
+      <c r="I29" s="3">
+        <v>6</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="7"/>
+        <v>0.34462952326249285</v>
+      </c>
+      <c r="K29" s="3">
+        <v>16</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>31264</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="8"/>
+        <v>3.1263999999999998</v>
+      </c>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>13</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="6">
+        <v>31251</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="6"/>
+        <v>3.1251000000000002</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1741</v>
+      </c>
+      <c r="G30" s="6">
+        <v>8266</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="9"/>
+        <v>82.66</v>
+      </c>
+      <c r="I30" s="6">
+        <v>7</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" si="7"/>
+        <v>0.40206777713957498</v>
+      </c>
+      <c r="K30" s="6">
+        <v>15</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>10000</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="6">
+        <v>15625</v>
+      </c>
+      <c r="P30" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5625</v>
+      </c>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="15">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:Q30"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:Q20"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="Q1:Q10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2272,16 +3392,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D14DC1-083C-4800-90FC-44F7712D14B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>